--- a/HW/HW2/HT_HW2.xlsx
+++ b/HW/HW2/HT_HW2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zenif/Documents/GitHub/HeatTransfer/HW/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41169689-345C-D34B-AD8D-6FB0FAAD4657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D2059-F9B8-E04A-A718-553A2982FFD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="440" windowWidth="20760" windowHeight="19340" activeTab="1" xr2:uid="{E215CB9A-9D86-DD42-82FC-282D9288EFD8}"/>
+    <workbookView xWindow="17420" yWindow="440" windowWidth="20760" windowHeight="19340" activeTab="3" xr2:uid="{E215CB9A-9D86-DD42-82FC-282D9288EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="prob 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="prob 2" sheetId="2" r:id="rId2"/>
+    <sheet name="prob 3" sheetId="3" r:id="rId3"/>
+    <sheet name="prob 6" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>case</t>
   </si>
@@ -139,12 +141,115 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t xml:space="preserve">Table 1: Property sets for comparison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">case </t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="CMMI7"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">(W/m-K) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="CMMI7"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">(W/m-K) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equiv. Res. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="CMSY7"/>
+      </rPr>
+      <t xml:space="preserve">′′ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Energy2D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="CMSY7"/>
+      </rPr>
+      <t xml:space="preserve">′′ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">% error </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="12">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +286,31 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="LucidaBright"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="CMR10"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="CMMI10"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="CMMI7"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="CMSY7"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,10 +416,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,19 +434,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,7 +778,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -657,12 +805,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>400+273</f>
-        <v>673</v>
+        <f>400-273</f>
+        <v>127</v>
       </c>
       <c r="C2" s="5">
-        <f>300+273</f>
-        <v>573</v>
+        <f>300-273</f>
+        <v>27</v>
       </c>
       <c r="D2" s="10">
         <v>-1000</v>
@@ -748,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35303A41-8413-EB4C-A3EB-0DD41A9CF321}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="242" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -806,6 +954,10 @@
       <c r="B6" s="15">
         <v>398</v>
       </c>
+      <c r="C6">
+        <f>-B6*((1/4)*C$3^2*PI())*(C$2-C$1)/C$4</f>
+        <v>195.36779314511526</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
@@ -814,6 +966,10 @@
       <c r="B7" s="15">
         <v>167</v>
       </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C12" si="0">-B7*((1/4)*C$3^2*PI())*(C$2-C$1)/C$4</f>
+        <v>81.97593330460866</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
@@ -822,6 +978,10 @@
       <c r="B8" s="16">
         <v>13.8</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6.7740591593029915</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
@@ -830,27 +990,266 @@
       <c r="B9" s="16">
         <v>1.41</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.69213213149400121</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.12271846303085131</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.2888548092268148E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.0799224746714913E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778E781A-0627-2043-8EFF-FB66BF572813}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9375229D-1484-1741-85E1-70207B093731}">
+  <dimension ref="B3:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22">
+        <v>10</v>
+      </c>
+      <c r="E7" s="23">
+        <f>((100/6)/C7 +(100/6)/D7)*100</f>
+        <v>333.33333333333337</v>
+      </c>
+      <c r="F7" s="23">
+        <v>333.27499999999998</v>
+      </c>
+      <c r="G7" s="31">
+        <f>ABS((F7-E7)/F7)</f>
+        <v>1.7503063036049499E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>100</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" ref="E9" si="0">((100/6)/C9 +(100/6)/D9)*100</f>
+        <v>1683.3333333333335</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1643.63</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" ref="G9" si="1">ABS((F9-E9)/F9)</f>
+        <v>2.4155882609427533E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="24">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" ref="E11" si="2">((100/6)/C11 +(100/6)/D11)*100</f>
+        <v>16668.333333333332</v>
+      </c>
+      <c r="F11" s="30">
+        <v>16400.25</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" ref="G11" si="3">ABS((F11-E11)/F11)</f>
+        <v>1.634629553411272E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="24">
+        <v>4</v>
+      </c>
+      <c r="C13" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" ref="E13" si="4">((100/6)/C13 +(100/6)/D13)*100</f>
+        <v>166666.83333333334</v>
+      </c>
+      <c r="F13" s="30">
+        <v>163944.1</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" ref="G13" si="5">ABS((F13-E13)/F13)</f>
+        <v>1.6607693313350935E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>